--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,78 +102,18 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>C165842</t>
-  </si>
-  <si>
-    <t>Umbrella Protocol</t>
-  </si>
-  <si>
-    <t>C165823</t>
-  </si>
-  <si>
-    <t>Basket Protocol</t>
-  </si>
-  <si>
-    <t>C139174</t>
-  </si>
-  <si>
-    <t>Device Feasibility Study</t>
-  </si>
-  <si>
-    <t>C49656</t>
-  </si>
-  <si>
-    <t>Treatment Study</t>
-  </si>
-  <si>
     <t>C15197</t>
   </si>
   <si>
     <t>Case-Control Study</t>
   </si>
   <si>
-    <t>C15362</t>
-  </si>
-  <si>
-    <t>Case Study</t>
-  </si>
-  <si>
-    <t>C127779</t>
-  </si>
-  <si>
-    <t>Observational Case-Crossover Study</t>
-  </si>
-  <si>
-    <t>C127780</t>
-  </si>
-  <si>
-    <t>Ecologic or Community Based Study</t>
-  </si>
-  <si>
-    <t>C15407</t>
-  </si>
-  <si>
-    <t>Family Study</t>
-  </si>
-  <si>
     <t>C15208</t>
   </si>
   <si>
     <t>Cohort Study</t>
   </si>
   <si>
-    <t>C139456</t>
-  </si>
-  <si>
-    <t>Trend Analysis</t>
-  </si>
-  <si>
-    <t>C53311</t>
-  </si>
-  <si>
-    <t>Panel Study</t>
-  </si>
-  <si>
     <t>C15273</t>
   </si>
   <si>
@@ -184,12 +124,6 @@
   </si>
   <si>
     <t>Cross-Sectional Study</t>
-  </si>
-  <si>
-    <t>C15311</t>
-  </si>
-  <si>
-    <t>Quality Control</t>
   </si>
   <si>
     <t/>
@@ -465,7 +399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,103 +454,15 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,16 +114,22 @@
     <t>Cohort Study</t>
   </si>
   <si>
-    <t>C15273</t>
-  </si>
-  <si>
-    <t>Longitudinal Study</t>
-  </si>
-  <si>
     <t>C53310</t>
   </si>
   <si>
     <t>Cross-Sectional Study</t>
+  </si>
+  <si>
+    <t>C46079</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>C93043</t>
+  </si>
+  <si>
+    <t>Nonrandomized Clinical Trial</t>
   </si>
   <si>
     <t/>
@@ -399,7 +405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,15 +460,23 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Nonrandomized Clinical Trial</t>
+  </si>
+  <si>
+    <t>C53312</t>
+  </si>
+  <si>
+    <t>Retrospective Study</t>
+  </si>
+  <si>
+    <t>C142646</t>
+  </si>
+  <si>
+    <t>Prospective Study</t>
   </si>
   <si>
     <t/>
@@ -405,7 +417,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,15 +480,31 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Thesaurus.owl" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from NCI Thesaurus" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T12:36:42+00:00</t>
+    <t>2023-03-22T15:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -346,68 +349,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -429,82 +434,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T12:55:59+00:00</t>
+    <t>2023-06-14T11:38:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,10 +275,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-studiendesign-ncit.xlsx
+++ b/ValueSet-studiendesign-ncit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:02+00:00</t>
+    <t>2023-12-13T13:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
